--- a/Pozzato/asp/orario.xlsx
+++ b/Pozzato/asp/orario.xlsx
@@ -87,40 +87,46 @@
     <t>presentazione_master</t>
   </si>
   <si>
+    <t>risorse_digitali_per_il_progetto_collaborazione_e_documentazione</t>
+  </si>
+  <si>
+    <t>fondamenti_di_ICT_e_Paradigmi_di_Programmazione</t>
+  </si>
+  <si>
     <t>progettazione_di_basi_di_dati</t>
   </si>
   <si>
-    <t>comunicazione_pubblicitaria_e_comunicazione_pubblica</t>
+    <t>la_gestione_della_qualita</t>
+  </si>
+  <si>
+    <t>i_vincoli_giuridici_del_progetto_diritto_dei_media</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>accessibilita_e_usabilita_nella_progettazione_multimediale</t>
   </si>
   <si>
     <t>acquisizione_ed_elaborazione_di_immagini_statiche_grafica</t>
   </si>
   <si>
-    <t>risorse_digitali_per_il_progetto_collaborazione_e_documentazione</t>
+    <t>tecniche_e_strumenti_di_Marketing_digitale</t>
   </si>
   <si>
-    <t>accessibilita_e_usabilita_nella_progettazione_multimediale</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>tecniche_e_strumenti_di_Marketing_digitale</t>
+    <t>linguaggi_di_markup</t>
   </si>
   <si>
     <t>project_Management</t>
   </si>
   <si>
-    <t>la_gestione_della_qualita</t>
-  </si>
-  <si>
-    <t>elementi_di_fotografia_digitale</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>semiologia_e_multimedialita</t>
+    <t>tecnologie_server_side_per_il_web</t>
+  </si>
+  <si>
+    <t>progettazione_grafica_e_design_di_interfacce</t>
   </si>
   <si>
     <t>strumenti_e_metodi_di_interazione_nei_Social_media</t>
@@ -129,22 +135,25 @@
     <t>4</t>
   </si>
   <si>
-    <t>progettazione_grafica_e_design_di_interfacce</t>
-  </si>
-  <si>
-    <t>fondamenti_di_ICT_e_Paradigmi_di_Programmazione</t>
+    <t>acquisizione_ed_elaborazione_del_suono</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>marketing_digitale</t>
-  </si>
-  <si>
-    <t>linguaggi_di_markup</t>
+    <t>recupero</t>
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>grafica_3D</t>
+  </si>
+  <si>
+    <t>semiologia_e_multimedialita</t>
+  </si>
+  <si>
+    <t>ambienti_di_sviluppo_e_linguaggi_client_side_per_il_web</t>
   </si>
   <si>
     <t>7</t>
@@ -162,31 +171,28 @@
     <t>giovedi</t>
   </si>
   <si>
-    <t>grafica_3D</t>
-  </si>
-  <si>
-    <t>i_vincoli_giuridici_del_progetto_diritto_dei_media</t>
-  </si>
-  <si>
-    <t>tecnologie_server_side_per_il_web</t>
-  </si>
-  <si>
-    <t>acquisizione_ed_elaborazione_del_suono</t>
-  </si>
-  <si>
-    <t>recupero</t>
-  </si>
-  <si>
-    <t>ambienti_di_sviluppo_e_linguaggi_client_side_per_il_web</t>
-  </si>
-  <si>
     <t>la_gestione_delle_risorse_umane</t>
   </si>
   <si>
-    <t>acquisizione_ed_elaborazione_di_sequenze_di_immagini_digitali</t>
+    <t>comunicazione_pubblicitaria_e_comunicazione_pubblica</t>
+  </si>
+  <si>
+    <t>marketing_digitale</t>
+  </si>
+  <si>
+    <t>elementi_di_fotografia_digitale</t>
+  </si>
+  <si>
+    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_I</t>
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_II</t>
+  </si>
+  <si>
+    <t>acquisizione_ed_elaborazione_di_sequenze_di_immagini_digitali</t>
   </si>
   <si>
     <t>introduzione_al_social_media_management</t>
@@ -195,16 +201,10 @@
     <t>crossmedia_articolazione_delle_scritture_multimediali</t>
   </si>
   <si>
-    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_I</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_II</t>
   </si>
   <si>
     <t>19</t>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -734,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -748,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -775,7 +775,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -834,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -890,7 +890,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -915,10 +915,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -929,10 +929,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -943,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -957,10 +957,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +984,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1001,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1015,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1029,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1043,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1057,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1071,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1085,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1099,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1110,10 +1124,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1124,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1138,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1152,10 +1166,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1210,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1224,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1238,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1252,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1266,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1280,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1294,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1305,10 +1333,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1322,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1333,10 +1361,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1347,10 +1375,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1433,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1405,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1419,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1433,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1461,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1475,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1489,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1500,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1514,10 +1556,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1528,10 +1570,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1542,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1628,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1600,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1614,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1628,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1642,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1656,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1670,7 +1712,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1684,7 +1726,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1695,10 +1737,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1709,10 +1751,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1726,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1740,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1749,6 +1791,830 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1772,7 +2638,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1781,12 +2647,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1795,12 +2661,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1809,12 +2675,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1823,12 +2689,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1837,12 +2703,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1851,12 +2717,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1865,12 +2731,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1879,63 +2745,63 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1943,9 +2809,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,66 +2833,66 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2037,980 +2903,100 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3037,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3065,7 +3051,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3079,7 +3065,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3093,7 +3079,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3107,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3121,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3135,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3149,7 +3135,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3163,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3177,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3188,10 +3174,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3202,10 +3188,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3216,10 +3202,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3302,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3316,7 +3302,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3330,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3344,7 +3330,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3369,10 +3355,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3383,10 +3369,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3397,7 +3383,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -3411,10 +3397,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3469,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3483,7 +3483,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3497,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3511,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3525,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3539,7 +3539,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3564,10 +3564,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3578,10 +3578,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3595,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3606,10 +3606,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3618,6 +3618,201 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -3641,7 +3836,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3650,12 +3845,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3664,12 +3859,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3678,12 +3873,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3692,12 +3887,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3706,12 +3901,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3720,12 +3915,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -3734,12 +3929,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -3748,12 +3943,12 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3762,12 +3957,12 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -3776,12 +3971,12 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -3790,12 +3985,12 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -3804,12 +3999,12 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -3818,7 +4013,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3850,125 +4045,125 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -3976,41 +4171,41 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -4021,7 +4216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -4045,7 +4240,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4054,216 +4249,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4277,7 +4263,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4291,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4305,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4319,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4333,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4347,7 +4333,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4361,7 +4347,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4372,7 +4358,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -4386,7 +4372,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -4400,7 +4386,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -4414,10 +4400,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4428,24 +4414,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4449,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4486,12 +4458,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4500,12 +4472,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4514,12 +4486,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4528,12 +4500,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4542,12 +4514,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4556,12 +4528,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4570,77 +4542,77 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4672,7 +4644,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4681,12 +4653,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4695,12 +4667,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4709,12 +4681,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4723,12 +4695,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4737,12 +4709,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4751,12 +4723,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4765,12 +4737,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4779,12 +4751,12 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -4793,49 +4765,49 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4845,7 +4817,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4867,7 +4839,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4876,12 +4848,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4890,12 +4862,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4904,12 +4876,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4918,12 +4890,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4932,12 +4904,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4946,12 +4918,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4960,12 +4932,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4974,63 +4946,105 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5085,7 +5099,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5099,7 +5113,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5113,7 +5127,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5127,7 +5141,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5141,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5155,7 +5169,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5169,7 +5183,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5183,7 +5197,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5197,7 +5211,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5211,7 +5225,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5222,10 +5236,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5236,10 +5250,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +5263,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5271,52 +5285,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -5327,209 +5341,209 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -5537,83 +5551,83 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -5621,282 +5635,268 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5905,6 +5905,201 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -5928,7 +6123,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5938,229 +6133,6 @@
       </c>
       <c r="D2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6174,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6188,7 +6160,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6202,7 +6174,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6216,7 +6188,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6230,7 +6202,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6244,7 +6216,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6258,7 +6230,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6272,7 +6244,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6283,10 +6255,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6300,7 +6272,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6311,10 +6283,38 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
+      <c r="D15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Pozzato/asp/orario.xlsx
+++ b/Pozzato/asp/orario.xlsx
@@ -87,46 +87,40 @@
     <t>presentazione_master</t>
   </si>
   <si>
+    <t>progettazione_di_basi_di_dati</t>
+  </si>
+  <si>
+    <t>comunicazione_pubblicitaria_e_comunicazione_pubblica</t>
+  </si>
+  <si>
+    <t>acquisizione_ed_elaborazione_di_immagini_statiche_grafica</t>
+  </si>
+  <si>
     <t>risorse_digitali_per_il_progetto_collaborazione_e_documentazione</t>
   </si>
   <si>
-    <t>fondamenti_di_ICT_e_Paradigmi_di_Programmazione</t>
+    <t>accessibilita_e_usabilita_nella_progettazione_multimediale</t>
   </si>
   <si>
-    <t>progettazione_di_basi_di_dati</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>tecniche_e_strumenti_di_Marketing_digitale</t>
+  </si>
+  <si>
+    <t>project_Management</t>
   </si>
   <si>
     <t>la_gestione_della_qualita</t>
   </si>
   <si>
-    <t>i_vincoli_giuridici_del_progetto_diritto_dei_media</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>accessibilita_e_usabilita_nella_progettazione_multimediale</t>
-  </si>
-  <si>
-    <t>acquisizione_ed_elaborazione_di_immagini_statiche_grafica</t>
-  </si>
-  <si>
-    <t>tecniche_e_strumenti_di_Marketing_digitale</t>
-  </si>
-  <si>
-    <t>linguaggi_di_markup</t>
-  </si>
-  <si>
-    <t>project_Management</t>
+    <t>elementi_di_fotografia_digitale</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>tecnologie_server_side_per_il_web</t>
-  </si>
-  <si>
-    <t>progettazione_grafica_e_design_di_interfacce</t>
+    <t>semiologia_e_multimedialita</t>
   </si>
   <si>
     <t>strumenti_e_metodi_di_interazione_nei_Social_media</t>
@@ -135,25 +129,22 @@
     <t>4</t>
   </si>
   <si>
-    <t>acquisizione_ed_elaborazione_del_suono</t>
+    <t>progettazione_grafica_e_design_di_interfacce</t>
+  </si>
+  <si>
+    <t>fondamenti_di_ICT_e_Paradigmi_di_Programmazione</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>recupero</t>
+    <t>marketing_digitale</t>
+  </si>
+  <si>
+    <t>linguaggi_di_markup</t>
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>grafica_3D</t>
-  </si>
-  <si>
-    <t>semiologia_e_multimedialita</t>
-  </si>
-  <si>
-    <t>ambienti_di_sviluppo_e_linguaggi_client_side_per_il_web</t>
   </si>
   <si>
     <t>7</t>
@@ -171,28 +162,31 @@
     <t>giovedi</t>
   </si>
   <si>
+    <t>grafica_3D</t>
+  </si>
+  <si>
+    <t>i_vincoli_giuridici_del_progetto_diritto_dei_media</t>
+  </si>
+  <si>
+    <t>tecnologie_server_side_per_il_web</t>
+  </si>
+  <si>
+    <t>acquisizione_ed_elaborazione_del_suono</t>
+  </si>
+  <si>
+    <t>recupero</t>
+  </si>
+  <si>
+    <t>ambienti_di_sviluppo_e_linguaggi_client_side_per_il_web</t>
+  </si>
+  <si>
     <t>la_gestione_delle_risorse_umane</t>
   </si>
   <si>
-    <t>comunicazione_pubblicitaria_e_comunicazione_pubblica</t>
-  </si>
-  <si>
-    <t>marketing_digitale</t>
-  </si>
-  <si>
-    <t>elementi_di_fotografia_digitale</t>
-  </si>
-  <si>
-    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_I</t>
+    <t>acquisizione_ed_elaborazione_di_sequenze_di_immagini_digitali</t>
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_II</t>
-  </si>
-  <si>
-    <t>acquisizione_ed_elaborazione_di_sequenze_di_immagini_digitali</t>
   </si>
   <si>
     <t>introduzione_al_social_media_management</t>
@@ -201,10 +195,16 @@
     <t>crossmedia_articolazione_delle_scritture_multimediali</t>
   </si>
   <si>
+    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_I</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>progettazione_e_sviluppo_di_applicazioni_web_su_dispositivi_mobile_II</t>
   </si>
   <si>
     <t>19</t>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -734,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -748,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -775,7 +775,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -834,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -890,7 +890,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -915,10 +915,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -929,10 +929,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -943,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -957,24 +957,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +970,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1029,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1043,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1057,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1071,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1085,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1099,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1113,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1124,10 +1110,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1138,10 +1124,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1152,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1166,24 +1152,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1224,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1238,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1252,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1266,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1280,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1294,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1308,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1322,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1333,10 +1305,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1350,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1361,10 +1333,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1375,24 +1347,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1447,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1461,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1475,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1503,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1517,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1531,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1542,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1556,10 +1514,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1570,10 +1528,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1584,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1642,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1656,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1670,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1684,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1698,7 +1656,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1712,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1726,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1737,10 +1695,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1751,10 +1709,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1768,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1782,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1791,6 +1749,858 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1814,7 +2624,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1823,12 +2633,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1837,12 +2647,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1851,12 +2661,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1865,12 +2675,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1879,12 +2689,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1893,12 +2703,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1907,12 +2717,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1921,12 +2731,12 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1935,63 +2745,63 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1999,9 +2809,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2023,631 +2833,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2661,7 +2856,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2675,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2689,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2703,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2717,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2731,7 +2926,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2745,7 +2940,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2756,10 +2951,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2770,10 +2965,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2784,10 +2979,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2798,205 +2993,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3037,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3051,7 +3065,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3065,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3079,7 +3093,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3093,7 +3107,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3107,7 +3121,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3121,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3135,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3149,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3163,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3174,10 +3188,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3188,10 +3202,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3202,10 +3216,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +3229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3288,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3302,7 +3316,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3316,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3330,7 +3344,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3355,10 +3369,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3369,10 +3383,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3383,7 +3397,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -3397,24 +3411,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3469,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3483,7 +3483,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3497,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3511,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3525,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3539,7 +3539,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3564,10 +3564,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3578,10 +3578,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3595,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3606,10 +3606,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3618,6 +3618,215 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3641,7 +3850,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3650,12 +3859,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3664,12 +3873,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3678,12 +3887,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3692,12 +3901,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3706,12 +3915,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3720,12 +3929,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -3734,12 +3943,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -3748,12 +3957,12 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3762,12 +3971,12 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -3776,26 +3985,26 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -3804,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3812,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -3836,7 +4045,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3845,12 +4054,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3859,12 +4068,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3873,12 +4082,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3887,12 +4096,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3901,12 +4110,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3915,12 +4124,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -3929,12 +4138,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -3943,68 +4152,68 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -4013,7 +4222,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4021,9 +4230,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4045,201 +4254,6 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
         <v>61</v>
       </c>
       <c r="B2" t="s">
@@ -4249,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4263,7 +4277,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4277,7 +4291,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4291,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4305,7 +4319,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4319,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4333,7 +4347,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4347,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4358,7 +4372,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -4372,7 +4386,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -4386,7 +4400,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -4400,10 +4414,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4414,10 +4428,24 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4477,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4458,12 +4486,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4472,12 +4500,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4486,12 +4514,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4500,12 +4528,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4514,12 +4542,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4528,12 +4556,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4542,12 +4570,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4556,63 +4584,63 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4644,7 +4672,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4653,12 +4681,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4667,12 +4695,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4681,12 +4709,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4695,12 +4723,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4709,12 +4737,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4723,12 +4751,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4737,12 +4765,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4751,63 +4779,63 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4845,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4839,7 +4867,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4848,12 +4876,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4862,12 +4890,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4876,12 +4904,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4890,12 +4918,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4904,12 +4932,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4918,12 +4946,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4932,12 +4960,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4946,105 +4974,63 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5085,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5099,7 +5085,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5113,7 +5099,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5127,7 +5113,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5141,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5155,7 +5141,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5169,7 +5155,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5183,7 +5169,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5197,7 +5183,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5211,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5225,7 +5211,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5236,10 +5222,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5250,10 +5236,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +5249,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5285,52 +5271,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -5341,209 +5327,209 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -5551,83 +5537,83 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -5635,268 +5621,282 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5905,6 +5905,229 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -5928,7 +6151,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5937,12 +6160,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -5951,12 +6174,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -5965,12 +6188,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -5979,12 +6202,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -5993,12 +6216,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -6007,12 +6230,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -6021,12 +6244,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -6035,12 +6258,12 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -6049,12 +6272,12 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -6063,26 +6286,26 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -6091,230 +6314,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
